--- a/analysis_Campinas/campinas_datasus/cps2018_dt_c.xlsx
+++ b/analysis_Campinas/campinas_datasus/cps2018_dt_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -68,6 +68,12 @@
     <t xml:space="preserve">80 anos e mais</t>
   </si>
   <si>
+    <t xml:space="preserve">Idade ignorada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -467,10 +476,16 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -521,10 +536,14 @@
       <c r="R2" t="n">
         <v>876</v>
       </c>
+      <c r="S2"/>
+      <c r="T2" t="n">
+        <v>2237</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -569,10 +588,14 @@
       <c r="R3" t="n">
         <v>168</v>
       </c>
+      <c r="S3"/>
+      <c r="T3" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
@@ -621,10 +644,14 @@
       <c r="R4" t="n">
         <v>512</v>
       </c>
+      <c r="S4"/>
+      <c r="T4" t="n">
+        <v>916</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -669,10 +696,14 @@
       <c r="R5" t="n">
         <v>99</v>
       </c>
+      <c r="S5"/>
+      <c r="T5" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -722,6 +753,134 @@
       </c>
       <c r="R6" t="n">
         <v>337</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6" t="n">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>138</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39</v>
+      </c>
+      <c r="F7" t="n">
+        <v>65</v>
+      </c>
+      <c r="G7" t="n">
+        <v>75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>90</v>
+      </c>
+      <c r="I7" t="n">
+        <v>64</v>
+      </c>
+      <c r="J7" t="n">
+        <v>81</v>
+      </c>
+      <c r="K7" t="n">
+        <v>93</v>
+      </c>
+      <c r="L7" t="n">
+        <v>109</v>
+      </c>
+      <c r="M7" t="n">
+        <v>120</v>
+      </c>
+      <c r="N7" t="n">
+        <v>131</v>
+      </c>
+      <c r="O7" t="n">
+        <v>145</v>
+      </c>
+      <c r="P7" t="n">
+        <v>144</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>186</v>
+      </c>
+      <c r="R7" t="n">
+        <v>617</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>156</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
+      </c>
+      <c r="F8" t="n">
+        <v>74</v>
+      </c>
+      <c r="G8" t="n">
+        <v>96</v>
+      </c>
+      <c r="H8" t="n">
+        <v>121</v>
+      </c>
+      <c r="I8" t="n">
+        <v>129</v>
+      </c>
+      <c r="J8" t="n">
+        <v>163</v>
+      </c>
+      <c r="K8" t="n">
+        <v>232</v>
+      </c>
+      <c r="L8" t="n">
+        <v>326</v>
+      </c>
+      <c r="M8" t="n">
+        <v>439</v>
+      </c>
+      <c r="N8" t="n">
+        <v>574</v>
+      </c>
+      <c r="O8" t="n">
+        <v>701</v>
+      </c>
+      <c r="P8" t="n">
+        <v>776</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>814</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2609</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7272</v>
       </c>
     </row>
   </sheetData>
